--- a/cO2 Peng.xlsx
+++ b/cO2 Peng.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hravoaha\Desktop\Thèse\composting code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F29DC68A-209F-4B2F-A463-7E799453C238}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB4AB72-9DF6-4446-9764-45A221BA1F2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2" sheetId="1" r:id="rId1"/>
     <sheet name="NH3" sheetId="2" r:id="rId2"/>
     <sheet name="N2O" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>h</t>
   </si>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5513,16 +5513,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>473075</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>473075</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5549,16 +5549,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>517525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>517525</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5590,16 +5590,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>473075</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>473075</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5923,16 +5923,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5961,11 +5961,68 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>1</v>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>9.8222232060840159E-3</v>
+      </c>
+      <c r="I2">
+        <v>2.2605962109551923E-2</v>
+      </c>
+      <c r="J2">
+        <v>3.5887097930257232E-2</v>
+      </c>
+      <c r="K2">
+        <v>4.3670425909225138E-2</v>
+      </c>
+      <c r="L2">
+        <v>5.9216425041876609E-2</v>
+      </c>
+      <c r="M2">
+        <v>7.5787411104596053E-2</v>
+      </c>
+      <c r="N2">
+        <v>8.7725740662062526E-2</v>
+      </c>
+      <c r="O2">
+        <v>0.10028814346488769</v>
+      </c>
+      <c r="P2">
+        <v>0.11065703219788381</v>
+      </c>
+      <c r="Q2">
+        <v>0.11157040026748966</v>
+      </c>
+      <c r="R2">
+        <v>0.11353480447969468</v>
+      </c>
+      <c r="S2">
+        <v>0.12156715155848573</v>
+      </c>
+      <c r="T2">
+        <v>0.13053849295222919</v>
+      </c>
+      <c r="U2">
+        <v>0.13973814017212202</v>
+      </c>
+      <c r="V2">
+        <v>0.14858594343679135</v>
+      </c>
+      <c r="W2">
+        <v>0.15512365797355376</v>
+      </c>
+      <c r="X2">
+        <v>0.16038578855218016</v>
+      </c>
+      <c r="Y2">
+        <v>0.16553183626331991</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>24</v>
       </c>
@@ -5981,10 +6038,10 @@
         <v>9.8222232060840159E-3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>9.8222232060840159E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>48</v>
       </c>
@@ -5996,14 +6053,14 @@
         <v>1.2783738903467907E-2</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D20" si="1">C4+D3</f>
+        <f t="shared" ref="D4:F20" si="1">C4+D3</f>
         <v>2.2605962109551923E-2</v>
       </c>
       <c r="F4">
-        <v>2.47973320022318E-2</v>
+        <v>2.2605962109551923E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>72</v>
       </c>
@@ -6019,10 +6076,10 @@
         <v>3.5887097930257232E-2</v>
       </c>
       <c r="F5">
-        <v>3.2274018943367601E-2</v>
+        <v>3.5887097930257232E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>96</v>
       </c>
@@ -6038,10 +6095,10 @@
         <v>4.3670425909225138E-2</v>
       </c>
       <c r="F6">
-        <v>3.35297546596953E-2</v>
+        <v>4.3670425909225138E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>120</v>
       </c>
@@ -6057,10 +6114,10 @@
         <v>5.9216425041876609E-2</v>
       </c>
       <c r="F7">
-        <v>1.9649906536147201E-2</v>
+        <v>5.9216425041876609E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>144</v>
       </c>
@@ -6076,10 +6133,10 @@
         <v>7.5787411104596053E-2</v>
       </c>
       <c r="F8">
-        <v>3.9247662541407401E-2</v>
+        <v>7.5787411104596053E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>168</v>
       </c>
@@ -6095,10 +6152,10 @@
         <v>8.7725740662062526E-2</v>
       </c>
       <c r="F9">
-        <v>4.1835359915979399E-2</v>
+        <v>8.7725740662062526E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>192</v>
       </c>
@@ -6114,10 +6171,10 @@
         <v>0.10028814346488769</v>
       </c>
       <c r="F10">
-        <v>3.0139685830513699E-2</v>
+        <v>0.10028814346488769</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>216</v>
       </c>
@@ -6133,10 +6190,10 @@
         <v>0.11065703219788381</v>
       </c>
       <c r="F11">
-        <v>3.1715230504481599E-2</v>
+        <v>0.11065703219788381</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>240</v>
       </c>
@@ -6152,10 +6209,10 @@
         <v>0.11157040026748966</v>
       </c>
       <c r="F12">
-        <v>2.6177451989386799E-2</v>
+        <v>0.11157040026748966</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>264</v>
       </c>
@@ -6171,10 +6228,10 @@
         <v>0.11353480447969468</v>
       </c>
       <c r="F13">
-        <v>2.3059027255891E-3</v>
+        <v>0.11353480447969468</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>288</v>
       </c>
@@ -6190,10 +6247,10 @@
         <v>0.12156715155848573</v>
       </c>
       <c r="F14">
-        <v>4.9593643327569201E-3</v>
+        <v>0.12156715155848573</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>312</v>
       </c>
@@ -6209,10 +6266,10 @@
         <v>0.13053849295222919</v>
       </c>
       <c r="F15">
-        <v>2.0278583889904198E-2</v>
+        <v>0.13053849295222919</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>336</v>
       </c>
@@ -6228,7 +6285,7 @@
         <v>0.13973814017212202</v>
       </c>
       <c r="F16">
-        <v>2.2649183018791898E-2</v>
+        <v>0.13973814017212202</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -6247,7 +6304,7 @@
         <v>0.14858594343679135</v>
       </c>
       <c r="F17">
-        <v>2.3225567331211401E-2</v>
+        <v>0.14858594343679135</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -6266,7 +6323,7 @@
         <v>0.15512365797355376</v>
       </c>
       <c r="F18">
-        <v>2.23372968055272E-2</v>
+        <v>0.15512365797355376</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -6285,7 +6342,7 @@
         <v>0.16038578855218016</v>
       </c>
       <c r="F19">
-        <v>1.65052121604706E-2</v>
+        <v>0.16038578855218016</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -6304,26 +6361,22 @@
         <v>0.16553183626331991</v>
       </c>
       <c r="F20">
-        <v>1.3284853770831599E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F21">
-        <v>1.29917892227714E-2</v>
+        <v>0.16553183626331991</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="597" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" activeCellId="1" sqref="A1:A1048576 B1:B1048576"/>
+      <selection activeCell="G2" sqref="G2:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6331,7 +6384,7 @@
     <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6345,7 +6398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6360,8 +6413,68 @@
         <f>C2</f>
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3.0080532956297158E-11</v>
+      </c>
+      <c r="I2">
+        <v>3.2890653369190359E-6</v>
+      </c>
+      <c r="J2">
+        <v>1.3157271756147567E-5</v>
+      </c>
+      <c r="K2">
+        <v>3.6174883538390531E-5</v>
+      </c>
+      <c r="L2">
+        <v>9.625372889241992E-5</v>
+      </c>
+      <c r="M2">
+        <v>1.7256258278226756E-4</v>
+      </c>
+      <c r="N2">
+        <v>2.7192920551209477E-4</v>
+      </c>
+      <c r="O2">
+        <v>5.0106301851832343E-4</v>
+      </c>
+      <c r="P2">
+        <v>5.6061407620819467E-4</v>
+      </c>
+      <c r="Q2">
+        <v>6.1636726244136643E-4</v>
+      </c>
+      <c r="R2">
+        <v>6.6573361910864462E-4</v>
+      </c>
+      <c r="S2">
+        <v>7.4155660638866865E-4</v>
+      </c>
+      <c r="T2">
+        <v>7.6885624606879224E-4</v>
+      </c>
+      <c r="U2">
+        <v>8.2107974330571641E-4</v>
+      </c>
+      <c r="V2">
+        <v>8.4246337588971573E-4</v>
+      </c>
+      <c r="W2">
+        <v>8.6550354909608598E-4</v>
+      </c>
+      <c r="X2">
+        <v>8.8254750976168145E-4</v>
+      </c>
+      <c r="Y2">
+        <v>8.9240811239966642E-4</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>24</v>
       </c>
@@ -6376,8 +6489,11 @@
         <f>C3+D2</f>
         <v>3.0080532956297158E-11</v>
       </c>
+      <c r="F3">
+        <v>3.0080532956297158E-11</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>47.999999999999901</v>
       </c>
@@ -6392,8 +6508,11 @@
         <f t="shared" ref="D4:D20" si="1">C4+D3</f>
         <v>3.2890653369190359E-6</v>
       </c>
+      <c r="F4">
+        <v>3.2890653369190359E-6</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>72</v>
       </c>
@@ -6408,8 +6527,11 @@
         <f t="shared" si="1"/>
         <v>1.3157271756147567E-5</v>
       </c>
+      <c r="F5">
+        <v>1.3157271756147567E-5</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>96</v>
       </c>
@@ -6424,8 +6546,11 @@
         <f t="shared" si="1"/>
         <v>3.6174883538390531E-5</v>
       </c>
+      <c r="F6">
+        <v>3.6174883538390531E-5</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>120</v>
       </c>
@@ -6440,8 +6565,11 @@
         <f t="shared" si="1"/>
         <v>9.625372889241992E-5</v>
       </c>
+      <c r="F7">
+        <v>9.625372889241992E-5</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>144</v>
       </c>
@@ -6456,8 +6584,11 @@
         <f t="shared" si="1"/>
         <v>1.7256258278226756E-4</v>
       </c>
+      <c r="F8">
+        <v>1.7256258278226756E-4</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>168</v>
       </c>
@@ -6472,8 +6603,11 @@
         <f t="shared" si="1"/>
         <v>2.7192920551209477E-4</v>
       </c>
+      <c r="F9">
+        <v>2.7192920551209477E-4</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>192</v>
       </c>
@@ -6488,8 +6622,11 @@
         <f t="shared" si="1"/>
         <v>5.0106301851832343E-4</v>
       </c>
+      <c r="F10">
+        <v>5.0106301851832343E-4</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>216</v>
       </c>
@@ -6504,8 +6641,11 @@
         <f t="shared" si="1"/>
         <v>5.6061407620819467E-4</v>
       </c>
+      <c r="F11">
+        <v>5.6061407620819467E-4</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>240</v>
       </c>
@@ -6520,8 +6660,11 @@
         <f t="shared" si="1"/>
         <v>6.1636726244136643E-4</v>
       </c>
+      <c r="F12">
+        <v>6.1636726244136643E-4</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>264</v>
       </c>
@@ -6536,8 +6679,11 @@
         <f t="shared" si="1"/>
         <v>6.6573361910864462E-4</v>
       </c>
+      <c r="F13">
+        <v>6.6573361910864462E-4</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>288</v>
       </c>
@@ -6552,8 +6698,11 @@
         <f t="shared" si="1"/>
         <v>7.4155660638866865E-4</v>
       </c>
+      <c r="F14">
+        <v>7.4155660638866865E-4</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>312</v>
       </c>
@@ -6568,8 +6717,11 @@
         <f t="shared" si="1"/>
         <v>7.6885624606879224E-4</v>
       </c>
+      <c r="F15">
+        <v>7.6885624606879224E-4</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>336</v>
       </c>
@@ -6584,8 +6736,11 @@
         <f t="shared" si="1"/>
         <v>8.2107974330571641E-4</v>
       </c>
+      <c r="F16">
+        <v>8.2107974330571641E-4</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>360</v>
       </c>
@@ -6600,8 +6755,11 @@
         <f t="shared" si="1"/>
         <v>8.4246337588971573E-4</v>
       </c>
+      <c r="F17">
+        <v>8.4246337588971573E-4</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>384</v>
       </c>
@@ -6616,8 +6774,11 @@
         <f t="shared" si="1"/>
         <v>8.6550354909608598E-4</v>
       </c>
+      <c r="F18">
+        <v>8.6550354909608598E-4</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>408</v>
       </c>
@@ -6632,8 +6793,11 @@
         <f t="shared" si="1"/>
         <v>8.8254750976168145E-4</v>
       </c>
+      <c r="F19">
+        <v>8.8254750976168145E-4</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>432</v>
       </c>
@@ -6648,19 +6812,23 @@
         <f t="shared" si="1"/>
         <v>8.9240811239966642E-4</v>
       </c>
+      <c r="F20">
+        <v>8.9240811239966642E-4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="597" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6668,7 +6836,7 @@
     <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6682,7 +6850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6697,8 +6865,68 @@
         <f>C2</f>
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.5399312219208343E-5</v>
+      </c>
+      <c r="I2">
+        <v>5.4045031319027275E-5</v>
+      </c>
+      <c r="J2">
+        <v>5.9614760272559374E-5</v>
+      </c>
+      <c r="K2">
+        <v>6.3963794134379076E-5</v>
+      </c>
+      <c r="L2">
+        <v>7.1452682620802365E-5</v>
+      </c>
+      <c r="M2">
+        <v>7.7089133878360607E-5</v>
+      </c>
+      <c r="N2">
+        <v>8.1762276669766559E-5</v>
+      </c>
+      <c r="O2">
+        <v>8.4251577091645701E-5</v>
+      </c>
+      <c r="P2">
+        <v>8.8258978337829865E-5</v>
+      </c>
+      <c r="Q2">
+        <v>8.8708879312595357E-5</v>
+      </c>
+      <c r="R2">
+        <v>8.9027177426565532E-5</v>
+      </c>
+      <c r="S2">
+        <v>8.9347276424598364E-5</v>
+      </c>
+      <c r="T2">
+        <v>8.9667375482362292E-5</v>
+      </c>
+      <c r="U2">
+        <v>9.0180197704837602E-5</v>
+      </c>
+      <c r="V2">
+        <v>9.0564316547501504E-5</v>
+      </c>
+      <c r="W2">
+        <v>9.1230786532835761E-5</v>
+      </c>
+      <c r="X2">
+        <v>9.1679402583457565E-5</v>
+      </c>
+      <c r="Y2">
+        <v>9.2255580794106144E-5</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>23.999999999999901</v>
       </c>
@@ -6713,8 +6941,11 @@
         <f>C3+D2</f>
         <v>4.5399312219208343E-5</v>
       </c>
+      <c r="F3">
+        <v>4.5399312219208343E-5</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>47.999999999999901</v>
       </c>
@@ -6729,8 +6960,11 @@
         <f t="shared" ref="D4:D20" si="1">C4+D3</f>
         <v>5.4045031319027275E-5</v>
       </c>
+      <c r="F4">
+        <v>5.4045031319027275E-5</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>71.999999999999901</v>
       </c>
@@ -6745,8 +6979,11 @@
         <f t="shared" si="1"/>
         <v>5.9614760272559374E-5</v>
       </c>
+      <c r="F5">
+        <v>5.9614760272559374E-5</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>95.999999999999901</v>
       </c>
@@ -6761,8 +6998,11 @@
         <f t="shared" si="1"/>
         <v>6.3963794134379076E-5</v>
       </c>
+      <c r="F6">
+        <v>6.3963794134379076E-5</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>120</v>
       </c>
@@ -6777,8 +7017,11 @@
         <f t="shared" si="1"/>
         <v>7.1452682620802365E-5</v>
       </c>
+      <c r="F7">
+        <v>7.1452682620802365E-5</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>144</v>
       </c>
@@ -6793,8 +7036,11 @@
         <f t="shared" si="1"/>
         <v>7.7089133878360607E-5</v>
       </c>
+      <c r="F8">
+        <v>7.7089133878360607E-5</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>168</v>
       </c>
@@ -6809,8 +7055,11 @@
         <f t="shared" si="1"/>
         <v>8.1762276669766559E-5</v>
       </c>
+      <c r="F9">
+        <v>8.1762276669766559E-5</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>191.99999999999901</v>
       </c>
@@ -6825,8 +7074,11 @@
         <f t="shared" si="1"/>
         <v>8.4251577091645701E-5</v>
       </c>
+      <c r="F10">
+        <v>8.4251577091645701E-5</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>216</v>
       </c>
@@ -6841,8 +7093,11 @@
         <f t="shared" si="1"/>
         <v>8.8258978337829865E-5</v>
       </c>
+      <c r="F11">
+        <v>8.8258978337829865E-5</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>240</v>
       </c>
@@ -6857,8 +7112,11 @@
         <f t="shared" si="1"/>
         <v>8.8708879312595357E-5</v>
       </c>
+      <c r="F12">
+        <v>8.8708879312595357E-5</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>264</v>
       </c>
@@ -6873,8 +7131,11 @@
         <f t="shared" si="1"/>
         <v>8.9027177426565532E-5</v>
       </c>
+      <c r="F13">
+        <v>8.9027177426565532E-5</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>288</v>
       </c>
@@ -6889,8 +7150,11 @@
         <f t="shared" si="1"/>
         <v>8.9347276424598364E-5</v>
       </c>
+      <c r="F14">
+        <v>8.9347276424598364E-5</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>312</v>
       </c>
@@ -6905,8 +7169,11 @@
         <f t="shared" si="1"/>
         <v>8.9667375482362292E-5</v>
       </c>
+      <c r="F15">
+        <v>8.9667375482362292E-5</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>336</v>
       </c>
@@ -6921,8 +7188,11 @@
         <f t="shared" si="1"/>
         <v>9.0180197704837602E-5</v>
       </c>
+      <c r="F16">
+        <v>9.0180197704837602E-5</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>360</v>
       </c>
@@ -6937,8 +7207,11 @@
         <f t="shared" si="1"/>
         <v>9.0564316547501504E-5</v>
       </c>
+      <c r="F17">
+        <v>9.0564316547501504E-5</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>384</v>
       </c>
@@ -6953,8 +7226,11 @@
         <f t="shared" si="1"/>
         <v>9.1230786532835761E-5</v>
       </c>
+      <c r="F18">
+        <v>9.1230786532835761E-5</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>408</v>
       </c>
@@ -6969,8 +7245,11 @@
         <f t="shared" si="1"/>
         <v>9.1679402583457565E-5</v>
       </c>
+      <c r="F19">
+        <v>9.1679402583457565E-5</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>432</v>
       </c>
@@ -6985,9 +7264,13 @@
         <f t="shared" si="1"/>
         <v>9.2255580794106144E-5</v>
       </c>
+      <c r="F20">
+        <v>9.2255580794106144E-5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="597" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>